--- a/team_specific_matrix/New Mexico_B.xlsx
+++ b/team_specific_matrix/New Mexico_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2038461538461538</v>
+        <v>0.2089093701996928</v>
       </c>
       <c r="C2">
-        <v>0.5480769230769231</v>
+        <v>0.5407066052227343</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01153846153846154</v>
+        <v>0.009216589861751152</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.001923076923076923</v>
+        <v>0.001536098310291859</v>
       </c>
       <c r="P2">
-        <v>0.1403846153846154</v>
+        <v>0.1397849462365591</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09423076923076923</v>
+        <v>0.09984639016897082</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01337792642140468</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="C3">
-        <v>0.02006688963210702</v>
+        <v>0.01902173913043478</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02341137123745819</v>
+        <v>0.02445652173913044</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7424749163879598</v>
+        <v>0.7309782608695652</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2006688963210702</v>
+        <v>0.2146739130434783</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04225352112676056</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.01408450704225352</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="P4">
-        <v>0.704225352112676</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2394366197183098</v>
+        <v>0.2386363636363636</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08776595744680851</v>
+        <v>0.09583333333333334</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01595744680851064</v>
+        <v>0.0125</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08244680851063829</v>
+        <v>0.08958333333333333</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2047872340425532</v>
+        <v>0.1979166666666667</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03457446808510638</v>
+        <v>0.04375</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1595744680851064</v>
+        <v>0.1520833333333333</v>
       </c>
       <c r="R6">
-        <v>0.07712765957446809</v>
+        <v>0.075</v>
       </c>
       <c r="S6">
-        <v>0.3377659574468085</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1161971830985915</v>
+        <v>0.1266490765171504</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02816901408450704</v>
+        <v>0.02902374670184697</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07746478873239436</v>
+        <v>0.06860158311345646</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1126760563380282</v>
+        <v>0.09762532981530343</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01408450704225352</v>
+        <v>0.01319261213720317</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1936619718309859</v>
+        <v>0.1794195250659631</v>
       </c>
       <c r="R7">
-        <v>0.06338028169014084</v>
+        <v>0.07387862796833773</v>
       </c>
       <c r="S7">
-        <v>0.3943661971830986</v>
+        <v>0.4116094986807388</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1067708333333333</v>
+        <v>0.1002132196162047</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.015625</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07161458333333333</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1184895833333333</v>
+        <v>0.1162046908315565</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01953125</v>
+        <v>0.02345415778251599</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1315104166666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="R8">
-        <v>0.08072916666666667</v>
+        <v>0.07889125799573561</v>
       </c>
       <c r="S8">
-        <v>0.4557291666666667</v>
+        <v>0.4520255863539446</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.124031007751938</v>
+        <v>0.1253822629969419</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01550387596899225</v>
+        <v>0.01529051987767584</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.003058103975535168</v>
       </c>
       <c r="F9">
-        <v>0.08139534883720931</v>
+        <v>0.08868501529051988</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1085271317829457</v>
+        <v>0.1039755351681957</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02325581395348837</v>
+        <v>0.02140672782874618</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1317829457364341</v>
+        <v>0.1345565749235474</v>
       </c>
       <c r="R9">
-        <v>0.09689922480620156</v>
+        <v>0.08868501529051988</v>
       </c>
       <c r="S9">
-        <v>0.4186046511627907</v>
+        <v>0.418960244648318</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.124240750966317</v>
+        <v>0.1189351653069987</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02374378796245168</v>
+        <v>0.0240446543580936</v>
       </c>
       <c r="E10">
-        <v>0.001104362230811706</v>
+        <v>0.0008587376556462001</v>
       </c>
       <c r="F10">
-        <v>0.07288790723357261</v>
+        <v>0.07170459424645771</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1131971286581999</v>
+        <v>0.1155002146844139</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0176697956929873</v>
+        <v>0.0206097037355088</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1910546659304252</v>
+        <v>0.1923572348647488</v>
       </c>
       <c r="R10">
-        <v>0.06957482054113749</v>
+        <v>0.0738514383855732</v>
       </c>
       <c r="S10">
-        <v>0.3865267807840972</v>
+        <v>0.382138256762559</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1252699784017278</v>
+        <v>0.1414634146341463</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1144708423326134</v>
+        <v>0.09918699186991869</v>
       </c>
       <c r="K11">
-        <v>0.2181425485961123</v>
+        <v>0.2260162601626016</v>
       </c>
       <c r="L11">
-        <v>0.5248380129589633</v>
+        <v>0.5186991869918699</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01727861771058315</v>
+        <v>0.01463414634146342</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7366412213740458</v>
+        <v>0.7243401759530792</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1755725190839695</v>
+        <v>0.1906158357771261</v>
       </c>
       <c r="K12">
-        <v>0.01145038167938931</v>
+        <v>0.01173020527859238</v>
       </c>
       <c r="L12">
-        <v>0.04580152671755725</v>
+        <v>0.04105571847507331</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03053435114503817</v>
+        <v>0.03225806451612903</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6307692307692307</v>
+        <v>0.6790123456790124</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3076923076923077</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06153846153846154</v>
+        <v>0.06172839506172839</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02547770700636943</v>
+        <v>0.02644230769230769</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1751592356687898</v>
+        <v>0.1466346153846154</v>
       </c>
       <c r="I15">
-        <v>0.06050955414012739</v>
+        <v>0.0625</v>
       </c>
       <c r="J15">
-        <v>0.3439490445859872</v>
+        <v>0.3365384615384616</v>
       </c>
       <c r="K15">
-        <v>0.0732484076433121</v>
+        <v>0.06971153846153846</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01273885350318471</v>
+        <v>0.01442307692307692</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.002403846153846154</v>
       </c>
       <c r="O15">
-        <v>0.05732484076433121</v>
+        <v>0.06009615384615385</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2515923566878981</v>
+        <v>0.28125</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01780415430267062</v>
+        <v>0.01699029126213592</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2344213649851632</v>
+        <v>0.2257281553398058</v>
       </c>
       <c r="I16">
-        <v>0.07418397626112759</v>
+        <v>0.08009708737864078</v>
       </c>
       <c r="J16">
-        <v>0.3382789317507419</v>
+        <v>0.3519417475728155</v>
       </c>
       <c r="K16">
-        <v>0.1127596439169139</v>
+        <v>0.1213592233009709</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01483679525222552</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="N16">
-        <v>0.002967359050445104</v>
+        <v>0.002427184466019417</v>
       </c>
       <c r="O16">
-        <v>0.02967359050445104</v>
+        <v>0.03155339805825243</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1750741839762611</v>
+        <v>0.1553398058252427</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01864406779661017</v>
+        <v>0.01849405548216645</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2169491525423729</v>
+        <v>0.2113606340819023</v>
       </c>
       <c r="I17">
-        <v>0.07966101694915254</v>
+        <v>0.07529722589167767</v>
       </c>
       <c r="J17">
-        <v>0.4271186440677966</v>
+        <v>0.4187582562747688</v>
       </c>
       <c r="K17">
-        <v>0.09830508474576272</v>
+        <v>0.1056803170409511</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01525423728813559</v>
+        <v>0.01321003963011889</v>
       </c>
       <c r="N17">
-        <v>0.001694915254237288</v>
+        <v>0.001321003963011889</v>
       </c>
       <c r="O17">
-        <v>0.04915254237288136</v>
+        <v>0.05151915455746367</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09322033898305085</v>
+        <v>0.1043593130779392</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02334630350194553</v>
+        <v>0.0208955223880597</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2568093385214008</v>
+        <v>0.2388059701492537</v>
       </c>
       <c r="I18">
-        <v>0.02334630350194553</v>
+        <v>0.0417910447761194</v>
       </c>
       <c r="J18">
-        <v>0.4163424124513619</v>
+        <v>0.417910447761194</v>
       </c>
       <c r="K18">
-        <v>0.07392996108949416</v>
+        <v>0.08358208955223881</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01556420233463035</v>
+        <v>0.01791044776119403</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.002985074626865672</v>
       </c>
       <c r="O18">
-        <v>0.06614785992217899</v>
+        <v>0.0626865671641791</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1245136186770428</v>
+        <v>0.1134328358208955</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01979695431472081</v>
+        <v>0.02106518282988871</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2289340101522843</v>
+        <v>0.2209856915739269</v>
       </c>
       <c r="I19">
-        <v>0.08223350253807106</v>
+        <v>0.07869634340222575</v>
       </c>
       <c r="J19">
-        <v>0.3482233502538071</v>
+        <v>0.3608903020667726</v>
       </c>
       <c r="K19">
-        <v>0.1091370558375634</v>
+        <v>0.1104928457869634</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02538071065989848</v>
+        <v>0.02384737678855326</v>
       </c>
       <c r="N19">
-        <v>0.001015228426395939</v>
+        <v>0.000794912559618442</v>
       </c>
       <c r="O19">
-        <v>0.06903553299492386</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.116243654822335</v>
+        <v>0.1156597774244833</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/New Mexico_B.xlsx
+++ b/team_specific_matrix/New Mexico_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2089093701996928</v>
+        <v>0.2042857142857143</v>
       </c>
       <c r="C2">
-        <v>0.5407066052227343</v>
+        <v>0.5457142857142857</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009216589861751152</v>
+        <v>0.008571428571428572</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.001536098310291859</v>
+        <v>0.001428571428571429</v>
       </c>
       <c r="P2">
-        <v>0.1397849462365591</v>
+        <v>0.1371428571428571</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09984639016897082</v>
+        <v>0.1028571428571429</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0108695652173913</v>
+        <v>0.0100250626566416</v>
       </c>
       <c r="C3">
-        <v>0.01902173913043478</v>
+        <v>0.02005012531328321</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02445652173913044</v>
+        <v>0.02255639097744361</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7309782608695652</v>
+        <v>0.7293233082706767</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2146739130434783</v>
+        <v>0.2180451127819549</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04545454545454546</v>
+        <v>0.04123711340206185</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.01136363636363636</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="P4">
-        <v>0.7045454545454546</v>
+        <v>0.7319587628865979</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2386363636363636</v>
+        <v>0.2164948453608248</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09583333333333334</v>
+        <v>0.08918406072106262</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0125</v>
+        <v>0.01328273244781784</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08958333333333333</v>
+        <v>0.08728652751423149</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1979166666666667</v>
+        <v>0.1916508538899431</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04375</v>
+        <v>0.04174573055028463</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1520833333333333</v>
+        <v>0.1555977229601518</v>
       </c>
       <c r="R6">
-        <v>0.075</v>
+        <v>0.08159392789373814</v>
       </c>
       <c r="S6">
-        <v>0.3333333333333333</v>
+        <v>0.3396584440227704</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1266490765171504</v>
+        <v>0.1328502415458937</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02902374670184697</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06860158311345646</v>
+        <v>0.07004830917874397</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09762532981530343</v>
+        <v>0.09420289855072464</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01319261213720317</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1794195250659631</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="R7">
-        <v>0.07387862796833773</v>
+        <v>0.0748792270531401</v>
       </c>
       <c r="S7">
-        <v>0.4116094986807388</v>
+        <v>0.4033816425120773</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1002132196162047</v>
+        <v>0.1</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01492537313432836</v>
+        <v>0.01568627450980392</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07142857142857142</v>
+        <v>0.07156862745098039</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1162046908315565</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02345415778251599</v>
+        <v>0.02156862745098039</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1428571428571428</v>
+        <v>0.1450980392156863</v>
       </c>
       <c r="R8">
-        <v>0.07889125799573561</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="S8">
-        <v>0.4520255863539446</v>
+        <v>0.446078431372549</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1253822629969419</v>
+        <v>0.1214689265536723</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01529051987767584</v>
+        <v>0.01412429378531073</v>
       </c>
       <c r="E9">
-        <v>0.003058103975535168</v>
+        <v>0.002824858757062147</v>
       </c>
       <c r="F9">
-        <v>0.08868501529051988</v>
+        <v>0.08757062146892655</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1039755351681957</v>
+        <v>0.1129943502824859</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02140672782874618</v>
+        <v>0.02824858757062147</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1345565749235474</v>
+        <v>0.1327683615819209</v>
       </c>
       <c r="R9">
-        <v>0.08868501529051988</v>
+        <v>0.08757062146892655</v>
       </c>
       <c r="S9">
-        <v>0.418960244648318</v>
+        <v>0.4124293785310734</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1189351653069987</v>
+        <v>0.1179952644041042</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0240446543580936</v>
+        <v>0.02407261247040253</v>
       </c>
       <c r="E10">
-        <v>0.0008587376556462001</v>
+        <v>0.0007892659826361484</v>
       </c>
       <c r="F10">
-        <v>0.07170459424645771</v>
+        <v>0.07537490134175218</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1155002146844139</v>
+        <v>0.1152328334648777</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0206097037355088</v>
+        <v>0.01894238358326756</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1923572348647488</v>
+        <v>0.1973164956590371</v>
       </c>
       <c r="R10">
-        <v>0.0738514383855732</v>
+        <v>0.07576953433307025</v>
       </c>
       <c r="S10">
-        <v>0.382138256762559</v>
+        <v>0.3745067087608524</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1414634146341463</v>
+        <v>0.1409495548961424</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09918699186991869</v>
+        <v>0.1008902077151335</v>
       </c>
       <c r="K11">
-        <v>0.2260162601626016</v>
+        <v>0.2270029673590505</v>
       </c>
       <c r="L11">
-        <v>0.5186991869918699</v>
+        <v>0.5178041543026706</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01463414634146342</v>
+        <v>0.01335311572700297</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7243401759530792</v>
+        <v>0.7211796246648794</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1906158357771261</v>
+        <v>0.1957104557640751</v>
       </c>
       <c r="K12">
-        <v>0.01173020527859238</v>
+        <v>0.01072386058981233</v>
       </c>
       <c r="L12">
-        <v>0.04105571847507331</v>
+        <v>0.04021447721179625</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03225806451612903</v>
+        <v>0.032171581769437</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6790123456790124</v>
+        <v>0.6931818181818182</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2592592592592592</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06172839506172839</v>
+        <v>0.05681818181818182</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02644230769230769</v>
+        <v>0.02444444444444445</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1466346153846154</v>
+        <v>0.1533333333333333</v>
       </c>
       <c r="I15">
-        <v>0.0625</v>
+        <v>0.06444444444444444</v>
       </c>
       <c r="J15">
-        <v>0.3365384615384616</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="K15">
-        <v>0.06971153846153846</v>
+        <v>0.06444444444444444</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01442307692307692</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="N15">
-        <v>0.002403846153846154</v>
+        <v>0.002222222222222222</v>
       </c>
       <c r="O15">
-        <v>0.06009615384615385</v>
+        <v>0.05777777777777778</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.28125</v>
+        <v>0.2755555555555556</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01699029126213592</v>
+        <v>0.01565995525727069</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2257281553398058</v>
+        <v>0.2237136465324385</v>
       </c>
       <c r="I16">
-        <v>0.08009708737864078</v>
+        <v>0.0738255033557047</v>
       </c>
       <c r="J16">
-        <v>0.3519417475728155</v>
+        <v>0.3557046979865772</v>
       </c>
       <c r="K16">
-        <v>0.1213592233009709</v>
+        <v>0.1319910514541387</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01456310679611651</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="N16">
-        <v>0.002427184466019417</v>
+        <v>0.002237136465324385</v>
       </c>
       <c r="O16">
-        <v>0.03155339805825243</v>
+        <v>0.03355704697986577</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1553398058252427</v>
+        <v>0.1498881431767338</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01849405548216645</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2113606340819023</v>
+        <v>0.2119047619047619</v>
       </c>
       <c r="I17">
-        <v>0.07529722589167767</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J17">
-        <v>0.4187582562747688</v>
+        <v>0.4178571428571429</v>
       </c>
       <c r="K17">
-        <v>0.1056803170409511</v>
+        <v>0.1095238095238095</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01321003963011889</v>
+        <v>0.01547619047619048</v>
       </c>
       <c r="N17">
-        <v>0.001321003963011889</v>
+        <v>0.001190476190476191</v>
       </c>
       <c r="O17">
-        <v>0.05151915455746367</v>
+        <v>0.05238095238095238</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1043593130779392</v>
+        <v>0.1023809523809524</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0208955223880597</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2388059701492537</v>
+        <v>0.2340425531914894</v>
       </c>
       <c r="I18">
-        <v>0.0417910447761194</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="J18">
-        <v>0.417910447761194</v>
+        <v>0.4122340425531915</v>
       </c>
       <c r="K18">
-        <v>0.08358208955223881</v>
+        <v>0.0797872340425532</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01791044776119403</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="N18">
-        <v>0.002985074626865672</v>
+        <v>0.002659574468085106</v>
       </c>
       <c r="O18">
-        <v>0.0626865671641791</v>
+        <v>0.05851063829787234</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1134328358208955</v>
+        <v>0.1223404255319149</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02106518282988871</v>
+        <v>0.0206794682422452</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2209856915739269</v>
+        <v>0.2208271787296898</v>
       </c>
       <c r="I19">
-        <v>0.07869634340222575</v>
+        <v>0.07865583456425407</v>
       </c>
       <c r="J19">
-        <v>0.3608903020667726</v>
+        <v>0.3607828655834564</v>
       </c>
       <c r="K19">
-        <v>0.1104928457869634</v>
+        <v>0.1100443131462334</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02384737678855326</v>
+        <v>0.02363367799113737</v>
       </c>
       <c r="N19">
-        <v>0.000794912559618442</v>
+        <v>0.001107828655834564</v>
       </c>
       <c r="O19">
-        <v>0.06756756756756757</v>
+        <v>0.06794682422451995</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1156597774244833</v>
+        <v>0.1163220088626293</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/New Mexico_B.xlsx
+++ b/team_specific_matrix/New Mexico_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2042857142857143</v>
+        <v>0.2042253521126761</v>
       </c>
       <c r="C2">
-        <v>0.5457142857142857</v>
+        <v>0.5464788732394367</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008571428571428572</v>
+        <v>0.008450704225352112</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.001428571428571429</v>
+        <v>0.001408450704225352</v>
       </c>
       <c r="P2">
-        <v>0.1371428571428571</v>
+        <v>0.1366197183098592</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1028571428571429</v>
+        <v>0.1028169014084507</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0100250626566416</v>
+        <v>0.009852216748768473</v>
       </c>
       <c r="C3">
-        <v>0.02005012531328321</v>
+        <v>0.01970443349753695</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02255639097744361</v>
+        <v>0.02216748768472906</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7293233082706767</v>
+        <v>0.7339901477832512</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2180451127819549</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04123711340206185</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.01030927835051546</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="P4">
-        <v>0.7319587628865979</v>
+        <v>0.7171717171717171</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2164948453608248</v>
+        <v>0.2323232323232323</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08918406072106262</v>
+        <v>0.0888468809073724</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01328273244781784</v>
+        <v>0.01323251417769376</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08728652751423149</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1916508538899431</v>
+        <v>0.1909262759924386</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04174573055028463</v>
+        <v>0.04158790170132325</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1555977229601518</v>
+        <v>0.1550094517958412</v>
       </c>
       <c r="R6">
-        <v>0.08159392789373814</v>
+        <v>0.08128544423440454</v>
       </c>
       <c r="S6">
-        <v>0.3396584440227704</v>
+        <v>0.3421550094517958</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1328502415458937</v>
+        <v>0.130952380952381</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02898550724637681</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07004830917874397</v>
+        <v>0.06904761904761905</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09420289855072464</v>
+        <v>0.09761904761904762</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01449275362318841</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1811594202898551</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="R7">
-        <v>0.0748792270531401</v>
+        <v>0.07857142857142857</v>
       </c>
       <c r="S7">
-        <v>0.4033816425120773</v>
+        <v>0.4023809523809524</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0.1000962463907603</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01568627450980392</v>
+        <v>0.01539942252165544</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07156862745098039</v>
+        <v>0.0712223291626564</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1176470588235294</v>
+        <v>0.1174205967276227</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02156862745098039</v>
+        <v>0.02117420596727623</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1450980392156863</v>
+        <v>0.1453320500481232</v>
       </c>
       <c r="R8">
-        <v>0.08235294117647059</v>
+        <v>0.08373435996150144</v>
       </c>
       <c r="S8">
-        <v>0.446078431372549</v>
+        <v>0.4456207892204042</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1214689265536723</v>
+        <v>0.1184573002754821</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01412429378531073</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="E9">
-        <v>0.002824858757062147</v>
+        <v>0.002754820936639119</v>
       </c>
       <c r="F9">
-        <v>0.08757062146892655</v>
+        <v>0.08539944903581267</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1129943502824859</v>
+        <v>0.1101928374655647</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02824858757062147</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1327683615819209</v>
+        <v>0.1322314049586777</v>
       </c>
       <c r="R9">
-        <v>0.08757062146892655</v>
+        <v>0.08539944903581267</v>
       </c>
       <c r="S9">
-        <v>0.4124293785310734</v>
+        <v>0.418732782369146</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1179952644041042</v>
+        <v>0.1184926184926185</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02407261247040253</v>
+        <v>0.02408702408702409</v>
       </c>
       <c r="E10">
-        <v>0.0007892659826361484</v>
+        <v>0.000777000777000777</v>
       </c>
       <c r="F10">
-        <v>0.07537490134175218</v>
+        <v>0.07459207459207459</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1152328334648777</v>
+        <v>0.1142191142191142</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01894238358326756</v>
+        <v>0.01864801864801865</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1973164956590371</v>
+        <v>0.1961926961926962</v>
       </c>
       <c r="R10">
-        <v>0.07576953433307025</v>
+        <v>0.07536907536907538</v>
       </c>
       <c r="S10">
-        <v>0.3745067087608524</v>
+        <v>0.3776223776223776</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1409495548961424</v>
+        <v>0.1426470588235294</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1008902077151335</v>
+        <v>0.1</v>
       </c>
       <c r="K11">
-        <v>0.2270029673590505</v>
+        <v>0.2264705882352941</v>
       </c>
       <c r="L11">
-        <v>0.5178041543026706</v>
+        <v>0.5176470588235295</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01335311572700297</v>
+        <v>0.01323529411764706</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7211796246648794</v>
+        <v>0.7214854111405835</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1957104557640751</v>
+        <v>0.1936339522546419</v>
       </c>
       <c r="K12">
-        <v>0.01072386058981233</v>
+        <v>0.01061007957559682</v>
       </c>
       <c r="L12">
-        <v>0.04021447721179625</v>
+        <v>0.03978779840848806</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.032171581769437</v>
+        <v>0.03448275862068965</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6931818181818182</v>
+        <v>0.6966292134831461</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.247191011235955</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05681818181818182</v>
+        <v>0.05617977528089887</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02444444444444445</v>
+        <v>0.02396514161220044</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1533333333333333</v>
+        <v>0.1503267973856209</v>
       </c>
       <c r="I15">
-        <v>0.06444444444444444</v>
+        <v>0.06535947712418301</v>
       </c>
       <c r="J15">
-        <v>0.3444444444444444</v>
+        <v>0.3485838779956427</v>
       </c>
       <c r="K15">
-        <v>0.06444444444444444</v>
+        <v>0.06318082788671024</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01333333333333333</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="N15">
-        <v>0.002222222222222222</v>
+        <v>0.002178649237472767</v>
       </c>
       <c r="O15">
-        <v>0.05777777777777778</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2755555555555556</v>
+        <v>0.2745098039215687</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01565995525727069</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2237136465324385</v>
+        <v>0.221978021978022</v>
       </c>
       <c r="I16">
-        <v>0.0738255033557047</v>
+        <v>0.07252747252747253</v>
       </c>
       <c r="J16">
-        <v>0.3557046979865772</v>
+        <v>0.3582417582417582</v>
       </c>
       <c r="K16">
-        <v>0.1319910514541387</v>
+        <v>0.1296703296703297</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01342281879194631</v>
+        <v>0.01318681318681319</v>
       </c>
       <c r="N16">
-        <v>0.002237136465324385</v>
+        <v>0.002197802197802198</v>
       </c>
       <c r="O16">
-        <v>0.03355704697986577</v>
+        <v>0.03516483516483516</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1498881431767338</v>
+        <v>0.1516483516483516</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01785714285714286</v>
+        <v>0.0176678445229682</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2119047619047619</v>
+        <v>0.2096584216725559</v>
       </c>
       <c r="I17">
-        <v>0.07142857142857142</v>
+        <v>0.07302709069493522</v>
       </c>
       <c r="J17">
-        <v>0.4178571428571429</v>
+        <v>0.4181389870435807</v>
       </c>
       <c r="K17">
-        <v>0.1095238095238095</v>
+        <v>0.1083627797408716</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01547619047619048</v>
+        <v>0.01648998822143698</v>
       </c>
       <c r="N17">
-        <v>0.001190476190476191</v>
+        <v>0.001177856301531213</v>
       </c>
       <c r="O17">
-        <v>0.05238095238095238</v>
+        <v>0.05182567726737338</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1023809523809524</v>
+        <v>0.1036513545347468</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02127659574468085</v>
+        <v>0.02088772845953003</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2340425531914894</v>
+        <v>0.2297650130548303</v>
       </c>
       <c r="I18">
-        <v>0.05319148936170213</v>
+        <v>0.05744125326370757</v>
       </c>
       <c r="J18">
-        <v>0.4122340425531915</v>
+        <v>0.4151436031331593</v>
       </c>
       <c r="K18">
-        <v>0.0797872340425532</v>
+        <v>0.0783289817232376</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01595744680851064</v>
+        <v>0.01566579634464752</v>
       </c>
       <c r="N18">
-        <v>0.002659574468085106</v>
+        <v>0.002610966057441253</v>
       </c>
       <c r="O18">
-        <v>0.05851063829787234</v>
+        <v>0.05744125326370757</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1223404255319149</v>
+        <v>0.1227154046997389</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0206794682422452</v>
+        <v>0.02022390754785121</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2208271787296898</v>
+        <v>0.2228241242325749</v>
       </c>
       <c r="I19">
-        <v>0.07865583456425407</v>
+        <v>0.07836764174792343</v>
       </c>
       <c r="J19">
-        <v>0.3607828655834564</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="K19">
-        <v>0.1100443131462334</v>
+        <v>0.1090646442759119</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02363367799113737</v>
+        <v>0.02311303719754424</v>
       </c>
       <c r="N19">
-        <v>0.001107828655834564</v>
+        <v>0.001083423618634886</v>
       </c>
       <c r="O19">
-        <v>0.06794682422451995</v>
+        <v>0.06825568797399784</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1163220088626293</v>
+        <v>0.1180931744312026</v>
       </c>
     </row>
   </sheetData>
